--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23565" windowHeight="11085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23565" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="1" r:id="rId1"/>
@@ -87,6 +87,3318 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DUGN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temp!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temp!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>47.840960000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.870939999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.761519999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.761519999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.28445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.28445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.28445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.28445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.356850000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.356850000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.633429999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.633429999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.617260000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.617260000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.245510000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.245510000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.973739999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.973739999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.503689999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.503689999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.575760000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.575760000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67F5-4C2B-84F6-2BEB51EF9659}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temp!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temp!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="6">
+                  <c:v>47.459919999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.459919999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.130519999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.130519999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.708530000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.708530000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.21002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.21002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.309159999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.309159999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.477549999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.477549999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.416150000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.416150000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.905380000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.905380000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.737259999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.737259999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.22786</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52.22786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.264569999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.264569999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.349379999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.349379999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.14011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.14011</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.271590000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.271590000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.897930000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.897930000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.549610000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.549610000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.210619999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55.210619999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67F5-4C2B-84F6-2BEB51EF9659}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UGN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temp!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temp!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="12">
+                  <c:v>49.896329999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.896329999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.969070000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.969070000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.743639999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.743639999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.616840000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.616840000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.060599999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.060599999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.269710000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.269710000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.402230000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.402230000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.17277</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.17277</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.638359999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48.638359999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.944890000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.944890000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.285899999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.285899999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.557830000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47.557830000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.190930000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.190930000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.080579999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47.080579999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.930399999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48.930399999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.388089999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.388089999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-67F5-4C2B-84F6-2BEB51EF9659}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1067480639"/>
+        <c:axId val="1037037263"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1067480639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037037263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1037037263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067480639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Precepitation!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DUGN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Precepitation!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Precepitation!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>9.1135999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1135999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7990999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7990999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9881000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9881000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9881000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9881000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.100104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.100104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10757</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10893</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1830999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1830999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8282999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8282999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.116855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.116855</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8333000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8333000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BA4-40D7-840F-B8C7D083A0A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Precepitation!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Precepitation!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Precepitation!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="6">
+                  <c:v>3.4719999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4719999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1164610938849901E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1164610938849901E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1464502686824299E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1464502686824299E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1464502686824299E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1464502686824299E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0763814766753403E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0763814766753403E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8107379111103198E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8107379111103198E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4101974620963397E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4101974620963397E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5840907990724496E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5840907990724496E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5840907990724496E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5840907990724496E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1206084475694099E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1206084475694099E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1712683223209499E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1712683223209499E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0439555154621202E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0439555154621202E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7744783396957298E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7744783396957298E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5052369083436496E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5052369083436496E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5788740245261898E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5788740245261898E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5104904594035003E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5104904594035003E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5114398751321398E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5114398751321398E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9489699972668404E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9489699972668404E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2891256850471496E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2891256850471496E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BA4-40D7-840F-B8C7D083A0A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Precepitation!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UGN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Precepitation!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Precepitation!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="16">
+                  <c:v>5.3389724310776897E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3389724310776897E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9152130325814501E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9152130325814501E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4315476190476102E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4315476190476102E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4315476190476102E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.4315476190476102E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.02798283587757E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.02798283587757E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0119883127832001E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0119883127832001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9450409375282199E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9450409375282199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2415954669959201E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2415954669959201E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8273025942380098E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8273025942380098E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2480286685092098E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2480286685092098E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5803496773980101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5803496773980101E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7891995638746601E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7891995638746601E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9937307570003999E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9937307570003999E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.64809972934018E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.64809972934018E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BA4-40D7-840F-B8C7D083A0A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1067380319"/>
+        <c:axId val="1061482623"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1067380319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061482623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1061482623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067380319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
@@ -872,6 +4184,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -879,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,5 +4698,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -136,7 +136,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2622699890599545E-2"/>
+          <c:y val="3.9098822324628774E-2"/>
+          <c:w val="0.95829560660910229"/>
+          <c:h val="0.78189774665263612"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1031,6 +1041,8 @@
         <c:axId val="1037037263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1175,7 +1187,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2152,7 +2163,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3336,15 +3346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3666,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -103,38 +103,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1041,8 +1010,8 @@
         <c:axId val="1037037263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="40"/>
+          <c:max val="67"/>
+          <c:min val="38"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3345,16 +3314,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3676,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Precepitation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>DUGN</t>
   </si>
@@ -35,11 +36,17 @@
   <si>
     <t>UGN</t>
   </si>
+  <si>
+    <t>AnnAvg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,7 +157,7 @@
             <c:numRef>
               <c:f>Temp!$A$2:$A$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>8402</c:v>
@@ -293,70 +301,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>47.840960000000003</c:v>
+                  <c:v>47.852214297561702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.870939999999997</c:v>
+                  <c:v>47.852214297561702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.761519999999997</c:v>
+                  <c:v>48.761520283576203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.761519999999997</c:v>
+                  <c:v>48.761520283576203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.28445</c:v>
+                  <c:v>48.936984162391198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.28445</c:v>
+                  <c:v>48.936984162391198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.28445</c:v>
+                  <c:v>45.106243154435901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.28445</c:v>
+                  <c:v>45.106243154435901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.356850000000001</c:v>
+                  <c:v>48.287878787878697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.356850000000001</c:v>
+                  <c:v>48.287878787878697</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.633429999999997</c:v>
+                  <c:v>46.602255309831399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.633429999999997</c:v>
+                  <c:v>46.602255309831399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.617260000000002</c:v>
+                  <c:v>47.4965411222136</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.617260000000002</c:v>
+                  <c:v>47.4965411222136</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.245510000000003</c:v>
+                  <c:v>46.245513866231597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.245510000000003</c:v>
+                  <c:v>46.245513866231597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.973739999999999</c:v>
+                  <c:v>49.973740621650499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.973739999999999</c:v>
+                  <c:v>49.973740621650499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.503689999999999</c:v>
+                  <c:v>49.639053254437798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.503689999999999</c:v>
+                  <c:v>49.639053254437798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.575760000000002</c:v>
+                  <c:v>62.5757575757575</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.575760000000002</c:v>
+                  <c:v>62.5757575757575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,7 +406,7 @@
             <c:numRef>
               <c:f>Temp!$A$2:$A$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>8402</c:v>
@@ -695,7 +703,7 @@
             <c:numRef>
               <c:f>Temp!$A$2:$A$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>8402</c:v>
@@ -963,7 +971,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1156,6 +1164,2312 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AnnAvg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temp!$Y$2:$Y$94</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15342</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17168</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17533</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19360</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19725</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20090</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20821</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21551</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21916</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22282</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22647</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23012</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23377</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23743</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24473</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24838</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25569</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25934</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26665</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27030</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27395</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27760</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28126</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28491</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28856</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29221</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29587</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29952</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30317</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30682</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31048</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31778</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32143</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32509</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33239</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33604</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34335</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temp!$Z$2:$Z$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>176.2641667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176.18666669999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.91916670000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176.14833329999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.44333330000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176.89583329999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.65083329999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176.11833329999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.94083330000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.86750000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.7666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175.8908333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175.93916669999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175.92250000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176.1408333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>176.2691667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176.1416667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176.12166669999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>176.3341667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>176.62666669999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176.59666669999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>176.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176.60166670000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>176.56666670000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176.53083330000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>176.21083329999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>176.2608333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176.7358333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>177.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>176.93333329999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>176.8291667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>176.7225</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>176.2633333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176.0675</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176.00583330000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>176.47749999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>176.37666669999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>176.2225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>175.92250000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>175.6825</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>175.9158333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>176.16083330000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176.30083329999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>176.44666670000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>176.6958333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>176.67833329999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>176.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>176.8883333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>177.12333330000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>177.09333330000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>176.97333330000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>176.89916669999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>176.505</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>176.59083330000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>176.79416670000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>176.80333329999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>176.6983333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>176.59833330000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>176.83333329999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>176.89500000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>177.12666669999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>177.29249999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>176.97</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>176.56416669999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>176.40083329999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>176.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>176.46916669999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>176.47916670000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>176.6958333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>176.67833329999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>176.5275</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>176.65416669999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>176.9841667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>176.71666669999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>176.2358333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>175.9783333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>175.9508333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>176.11833329999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>175.8916667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>176.1108333</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>176.09</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>176.0158333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>175.94333330000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>176.005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>176.2583333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>176.1108333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>176.03659999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>175.91579999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>175.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>176.3016667</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>176.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-927B-4603-9DA1-00B84DF8C91A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="927080495"/>
+        <c:axId val="695679311"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="927080495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695679311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="695679311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="927080495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AnnAvg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temp!$Y$2:$Y$97</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15342</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17168</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17533</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19360</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19725</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20090</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20821</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21551</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21916</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22282</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22647</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23012</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23377</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23743</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24473</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24838</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25569</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25934</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26665</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27030</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27395</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27760</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28126</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28491</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28856</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29221</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29587</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29952</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30317</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30682</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31048</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31778</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32143</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32509</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33239</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33604</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34335</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temp!$Z$2:$Z$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>176.2641667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176.18666669999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.91916670000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176.14833329999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.44333330000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176.89583329999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.65083329999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176.11833329999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.94083330000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.86750000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.7666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175.8908333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175.93916669999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175.92250000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176.1408333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>176.2691667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176.1416667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176.12166669999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>176.3341667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>176.62666669999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176.59666669999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>176.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176.60166670000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>176.56666670000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176.53083330000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>176.21083329999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>176.2608333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176.7358333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>177.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>176.93333329999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>176.8291667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>176.7225</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>176.2633333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176.0675</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176.00583330000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>176.47749999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>176.37666669999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>176.2225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>175.92250000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>175.6825</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>175.9158333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>176.16083330000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176.30083329999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>176.44666670000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>176.6958333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>176.67833329999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>176.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>176.8883333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>177.12333330000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>177.09333330000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>176.97333330000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>176.89916669999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>176.505</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>176.59083330000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>176.79416670000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>176.80333329999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>176.6983333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>176.59833330000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>176.83333329999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>176.89500000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>177.12666669999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>177.29249999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>176.97</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>176.56416669999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>176.40083329999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>176.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>176.46916669999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>176.47916670000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>176.6958333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>176.67833329999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>176.5275</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>176.65416669999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>176.9841667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>176.71666669999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>176.2358333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>175.9783333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>175.9508333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>176.11833329999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>175.8916667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>176.1108333</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>176.09</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>176.0158333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>175.94333330000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>176.005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>176.2583333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>176.1108333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>176.03659999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>175.91579999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>175.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>176.3016667</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>176.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5168-4C8A-8564-9D2F71BB6BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="696113999"/>
+        <c:axId val="1103468319"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DUGN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temp!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temp!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>47.852214297561702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.852214297561702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.761520283576203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.761520283576203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.936984162391198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.936984162391198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.106243154435901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.106243154435901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.287878787878697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.287878787878697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.602255309831399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.602255309831399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.4965411222136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.4965411222136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.245513866231597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.245513866231597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.973740621650499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.973740621650499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.639053254437798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.639053254437798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.5757575757575</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.5757575757575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5168-4C8A-8564-9D2F71BB6BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temp!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>8402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38834</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41755</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temp!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="6">
+                  <c:v>47.459919999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.459919999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.130519999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.130519999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.708530000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.708530000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.21002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.21002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.309159999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.309159999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.477549999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.477549999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.416150000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.416150000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.905380000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.905380000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.737259999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.737259999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.22786</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52.22786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.264569999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.264569999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.349379999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.349379999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.14011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.14011</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.271590000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.271590000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.897930000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.897930000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.549610000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.549610000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.210619999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55.210619999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5168-4C8A-8564-9D2F71BB6BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1067242255"/>
+        <c:axId val="695681391"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1067242255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695681391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="695681391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067242255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1103468319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696113999"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="696113999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1103468319"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2132,6 +4446,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2278,6 +4593,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2795,6 +5190,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3320,8 +6747,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -3337,6 +6764,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3643,18 +7130,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3664,127 +7152,202 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>8402</v>
       </c>
       <c r="B2">
-        <v>47.840960000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>47.852214297561702</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>8402</v>
+      </c>
+      <c r="Z2">
+        <v>176.2641667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>14458</v>
       </c>
       <c r="B3">
-        <v>47.870939999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+        <v>47.852214297561702</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>8767</v>
+      </c>
+      <c r="Z3">
+        <v>176.18666669999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>14459</v>
       </c>
       <c r="B4">
-        <v>48.761519999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>48.761520283576203</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>9133</v>
+      </c>
+      <c r="Z4">
+        <v>175.91916670000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>16997</v>
       </c>
       <c r="B5">
-        <v>48.761519999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <v>48.761520283576203</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>9498</v>
+      </c>
+      <c r="Z5">
+        <v>175.88499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>16998</v>
       </c>
       <c r="B6">
-        <v>48.28445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>48.936984162391198</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>9863</v>
+      </c>
+      <c r="Z6">
+        <v>176.14833329999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>21489</v>
       </c>
       <c r="B7">
-        <v>48.28445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+        <v>48.936984162391198</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>10228</v>
+      </c>
+      <c r="Z7">
+        <v>176.44333330000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>21490</v>
       </c>
       <c r="B8">
-        <v>48.28445</v>
+        <v>45.106243154435901</v>
       </c>
       <c r="C8">
         <v>47.459919999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="Y8" s="2">
+        <v>10594</v>
+      </c>
+      <c r="Z8">
+        <v>176.89583329999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>22402</v>
       </c>
       <c r="B9">
-        <v>48.28445</v>
+        <v>45.106243154435901</v>
       </c>
       <c r="C9">
         <v>47.459919999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="Y9" s="2">
+        <v>10959</v>
+      </c>
+      <c r="Z9">
+        <v>176.65083329999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>22403</v>
       </c>
       <c r="B10">
-        <v>48.356850000000001</v>
+        <v>48.287878787878697</v>
       </c>
       <c r="C10">
         <v>51.130519999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="Y10" s="2">
+        <v>11324</v>
+      </c>
+      <c r="Z10">
+        <v>176.11833329999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>27312</v>
       </c>
       <c r="B11">
-        <v>48.356850000000001</v>
+        <v>48.287878787878697</v>
       </c>
       <c r="C11">
         <v>51.130519999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="Y11" s="2">
+        <v>11689</v>
+      </c>
+      <c r="Z11">
+        <v>175.94083330000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>27313</v>
       </c>
       <c r="B12">
-        <v>46.633429999999997</v>
+        <v>46.602255309831399</v>
       </c>
       <c r="C12">
         <v>50.005600000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="Y12" s="2">
+        <v>12055</v>
+      </c>
+      <c r="Z12">
+        <v>175.86750000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>32618</v>
       </c>
       <c r="B13">
-        <v>46.633429999999997</v>
+        <v>46.602255309831399</v>
       </c>
       <c r="C13">
         <v>50.005600000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="Y13" s="2">
+        <v>12420</v>
+      </c>
+      <c r="Z13">
+        <v>175.7666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>32619</v>
       </c>
       <c r="B14">
-        <v>47.617260000000002</v>
+        <v>47.4965411222136</v>
       </c>
       <c r="C14">
         <v>50.005600000000001</v>
@@ -3792,13 +7355,19 @@
       <c r="D14">
         <v>49.896329999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="Y14" s="2">
+        <v>12785</v>
+      </c>
+      <c r="Z14">
+        <v>175.8908333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>34090</v>
       </c>
       <c r="B15">
-        <v>47.617260000000002</v>
+        <v>47.4965411222136</v>
       </c>
       <c r="C15">
         <v>50.005600000000001</v>
@@ -3806,13 +7375,19 @@
       <c r="D15">
         <v>49.896329999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="Y15" s="2">
+        <v>13150</v>
+      </c>
+      <c r="Z15">
+        <v>175.93916669999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>34091</v>
       </c>
       <c r="B16">
-        <v>46.245510000000003</v>
+        <v>46.245513866231597</v>
       </c>
       <c r="C16">
         <v>51.708530000000003</v>
@@ -3820,13 +7395,19 @@
       <c r="D16">
         <v>48.969070000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="Y16" s="2">
+        <v>13516</v>
+      </c>
+      <c r="Z16">
+        <v>175.92250000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>35521</v>
       </c>
       <c r="B17">
-        <v>46.245510000000003</v>
+        <v>46.245513866231597</v>
       </c>
       <c r="C17">
         <v>51.708530000000003</v>
@@ -3834,13 +7415,19 @@
       <c r="D17">
         <v>48.969070000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="Y17" s="2">
+        <v>13881</v>
+      </c>
+      <c r="Z17">
+        <v>176.1408333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>35522</v>
       </c>
       <c r="B18">
-        <v>49.973739999999999</v>
+        <v>49.973740621650499</v>
       </c>
       <c r="C18">
         <v>53.21002</v>
@@ -3848,13 +7435,19 @@
       <c r="D18">
         <v>40.743639999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="Y18" s="2">
+        <v>14246</v>
+      </c>
+      <c r="Z18">
+        <v>176.2691667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>36638</v>
       </c>
       <c r="B19">
-        <v>49.973739999999999</v>
+        <v>49.973740621650499</v>
       </c>
       <c r="C19">
         <v>53.21002</v>
@@ -3862,13 +7455,19 @@
       <c r="D19">
         <v>40.743639999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="Y19" s="2">
+        <v>14611</v>
+      </c>
+      <c r="Z19">
+        <v>176.1416667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>36639</v>
       </c>
       <c r="B20">
-        <v>49.503689999999999</v>
+        <v>49.639053254437798</v>
       </c>
       <c r="C20">
         <v>52.309159999999999</v>
@@ -3876,13 +7475,19 @@
       <c r="D20">
         <v>49.616840000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="Y20" s="2">
+        <v>14977</v>
+      </c>
+      <c r="Z20">
+        <v>176.12166669999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>37372</v>
       </c>
       <c r="B21">
-        <v>49.503689999999999</v>
+        <v>49.639053254437798</v>
       </c>
       <c r="C21">
         <v>52.309159999999999</v>
@@ -3890,13 +7495,19 @@
       <c r="D21">
         <v>49.616840000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="Y21" s="2">
+        <v>15342</v>
+      </c>
+      <c r="Z21">
+        <v>176.3341667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>37373</v>
       </c>
       <c r="B22">
-        <v>62.575760000000002</v>
+        <v>62.5757575757575</v>
       </c>
       <c r="C22">
         <v>68.477549999999994</v>
@@ -3904,13 +7515,19 @@
       <c r="D22">
         <v>64.060599999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="Y22" s="2">
+        <v>15707</v>
+      </c>
+      <c r="Z22">
+        <v>176.62666669999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>37468</v>
       </c>
       <c r="B23">
-        <v>62.575760000000002</v>
+        <v>62.5757575757575</v>
       </c>
       <c r="C23">
         <v>68.477549999999994</v>
@@ -3918,9 +7535,15 @@
       <c r="D23">
         <v>64.060599999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="Y23" s="2">
+        <v>16072</v>
+      </c>
+      <c r="Z23">
+        <v>176.59666669999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>37469</v>
       </c>
       <c r="C24">
@@ -3929,9 +7552,15 @@
       <c r="D24">
         <v>45.269710000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="Y24" s="2">
+        <v>16438</v>
+      </c>
+      <c r="Z24">
+        <v>176.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>38082</v>
       </c>
       <c r="C25">
@@ -3940,9 +7569,15 @@
       <c r="D25">
         <v>45.269710000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="Y25" s="2">
+        <v>16803</v>
+      </c>
+      <c r="Z25">
+        <v>176.60166670000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>38083</v>
       </c>
       <c r="C26">
@@ -3951,9 +7586,15 @@
       <c r="D26">
         <v>48.402230000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="Y26" s="2">
+        <v>17168</v>
+      </c>
+      <c r="Z26">
+        <v>176.56666670000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>38451</v>
       </c>
       <c r="C27">
@@ -3962,9 +7603,15 @@
       <c r="D27">
         <v>48.402230000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="Y27" s="2">
+        <v>17533</v>
+      </c>
+      <c r="Z27">
+        <v>176.53083330000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>38452</v>
       </c>
       <c r="C28">
@@ -3973,9 +7620,15 @@
       <c r="D28">
         <v>50.17277</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="Y28" s="2">
+        <v>17899</v>
+      </c>
+      <c r="Z28">
+        <v>176.21083329999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>38833</v>
       </c>
       <c r="C29">
@@ -3984,9 +7637,15 @@
       <c r="D29">
         <v>50.17277</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="Y29" s="2">
+        <v>18264</v>
+      </c>
+      <c r="Z29">
+        <v>176.2608333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>38834</v>
       </c>
       <c r="C30">
@@ -3995,9 +7654,15 @@
       <c r="D30">
         <v>48.638359999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="Y30" s="2">
+        <v>18629</v>
+      </c>
+      <c r="Z30">
+        <v>176.7358333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>39209</v>
       </c>
       <c r="C31">
@@ -4006,9 +7671,15 @@
       <c r="D31">
         <v>48.638359999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="Y31" s="2">
+        <v>18994</v>
+      </c>
+      <c r="Z31">
+        <v>177.08500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>39210</v>
       </c>
       <c r="C32">
@@ -4017,9 +7688,15 @@
       <c r="D32">
         <v>52.944890000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="Y32" s="2">
+        <v>19360</v>
+      </c>
+      <c r="Z32">
+        <v>176.93333329999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>39691</v>
       </c>
       <c r="C33">
@@ -4028,9 +7705,15 @@
       <c r="D33">
         <v>52.944890000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="Y33" s="2">
+        <v>19725</v>
+      </c>
+      <c r="Z33">
+        <v>176.8291667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>39692</v>
       </c>
       <c r="C34">
@@ -4039,9 +7722,15 @@
       <c r="D34">
         <v>39.285899999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="Y34" s="2">
+        <v>20090</v>
+      </c>
+      <c r="Z34">
+        <v>176.7225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>39959</v>
       </c>
       <c r="C35">
@@ -4050,9 +7739,15 @@
       <c r="D35">
         <v>39.285899999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="Y35" s="2">
+        <v>20455</v>
+      </c>
+      <c r="Z35">
+        <v>176.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>39960</v>
       </c>
       <c r="C36">
@@ -4061,9 +7756,15 @@
       <c r="D36">
         <v>47.557830000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="Y36" s="2">
+        <v>20821</v>
+      </c>
+      <c r="Z36">
+        <v>176.2633333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>40286</v>
       </c>
       <c r="C37">
@@ -4072,9 +7773,15 @@
       <c r="D37">
         <v>47.557830000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="Y37" s="2">
+        <v>21186</v>
+      </c>
+      <c r="Z37">
+        <v>176.0675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>40287</v>
       </c>
       <c r="C38">
@@ -4083,9 +7790,15 @@
       <c r="D38">
         <v>50.190930000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="Y38" s="2">
+        <v>21551</v>
+      </c>
+      <c r="Z38">
+        <v>176.00583330000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>41042</v>
       </c>
       <c r="C39">
@@ -4094,9 +7807,15 @@
       <c r="D39">
         <v>50.190930000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="Y39" s="2">
+        <v>21916</v>
+      </c>
+      <c r="Z39">
+        <v>176.47749999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>41043</v>
       </c>
       <c r="C40">
@@ -4105,9 +7824,15 @@
       <c r="D40">
         <v>47.080579999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="Y40" s="2">
+        <v>22282</v>
+      </c>
+      <c r="Z40">
+        <v>176.37666669999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>41755</v>
       </c>
       <c r="C41">
@@ -4116,9 +7841,15 @@
       <c r="D41">
         <v>47.080579999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="Y41" s="2">
+        <v>22647</v>
+      </c>
+      <c r="Z41">
+        <v>176.2225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>41756</v>
       </c>
       <c r="C42">
@@ -4127,9 +7858,15 @@
       <c r="D42">
         <v>48.930399999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="Y42" s="2">
+        <v>23012</v>
+      </c>
+      <c r="Z42">
+        <v>175.92250000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>42837</v>
       </c>
       <c r="C43">
@@ -4138,9 +7875,15 @@
       <c r="D43">
         <v>48.930399999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="Y43" s="2">
+        <v>23377</v>
+      </c>
+      <c r="Z43">
+        <v>175.6825</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>42838</v>
       </c>
       <c r="C44">
@@ -4149,9 +7892,15 @@
       <c r="D44">
         <v>51.388089999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="Y44" s="2">
+        <v>23743</v>
+      </c>
+      <c r="Z44">
+        <v>175.9158333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>43465</v>
       </c>
       <c r="C45">
@@ -4160,10 +7909,424 @@
       <c r="D45">
         <v>51.388089999999998</v>
       </c>
+      <c r="Y45" s="2">
+        <v>24108</v>
+      </c>
+      <c r="Z45">
+        <v>176.16083330000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y46" s="2">
+        <v>24473</v>
+      </c>
+      <c r="Z46">
+        <v>176.30083329999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y47" s="2">
+        <v>24838</v>
+      </c>
+      <c r="Z47">
+        <v>176.44666670000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y48" s="2">
+        <v>25204</v>
+      </c>
+      <c r="Z48">
+        <v>176.6958333</v>
+      </c>
+    </row>
+    <row r="49" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y49" s="2">
+        <v>25569</v>
+      </c>
+      <c r="Z49">
+        <v>176.67833329999999</v>
+      </c>
+    </row>
+    <row r="50" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y50" s="2">
+        <v>25934</v>
+      </c>
+      <c r="Z50">
+        <v>176.80500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y51" s="2">
+        <v>26299</v>
+      </c>
+      <c r="Z51">
+        <v>176.8883333</v>
+      </c>
+    </row>
+    <row r="52" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y52" s="2">
+        <v>26665</v>
+      </c>
+      <c r="Z52">
+        <v>177.12333330000001</v>
+      </c>
+    </row>
+    <row r="53" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y53" s="2">
+        <v>27030</v>
+      </c>
+      <c r="Z53">
+        <v>177.09333330000001</v>
+      </c>
+    </row>
+    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y54" s="2">
+        <v>27395</v>
+      </c>
+      <c r="Z54">
+        <v>176.97333330000001</v>
+      </c>
+    </row>
+    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y55" s="2">
+        <v>27760</v>
+      </c>
+      <c r="Z55">
+        <v>176.89916669999999</v>
+      </c>
+    </row>
+    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y56" s="2">
+        <v>28126</v>
+      </c>
+      <c r="Z56">
+        <v>176.505</v>
+      </c>
+    </row>
+    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y57" s="2">
+        <v>28491</v>
+      </c>
+      <c r="Z57">
+        <v>176.59083330000001</v>
+      </c>
+    </row>
+    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y58" s="2">
+        <v>28856</v>
+      </c>
+      <c r="Z58">
+        <v>176.79416670000001</v>
+      </c>
+    </row>
+    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y59" s="2">
+        <v>29221</v>
+      </c>
+      <c r="Z59">
+        <v>176.80333329999999</v>
+      </c>
+    </row>
+    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y60" s="2">
+        <v>29587</v>
+      </c>
+      <c r="Z60">
+        <v>176.6983333</v>
+      </c>
+    </row>
+    <row r="61" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y61" s="2">
+        <v>29952</v>
+      </c>
+      <c r="Z61">
+        <v>176.59833330000001</v>
+      </c>
+    </row>
+    <row r="62" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y62" s="2">
+        <v>30317</v>
+      </c>
+      <c r="Z62">
+        <v>176.83333329999999</v>
+      </c>
+    </row>
+    <row r="63" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y63" s="2">
+        <v>30682</v>
+      </c>
+      <c r="Z63">
+        <v>176.89500000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y64" s="2">
+        <v>31048</v>
+      </c>
+      <c r="Z64">
+        <v>177.12666669999999</v>
+      </c>
+    </row>
+    <row r="65" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y65" s="2">
+        <v>31413</v>
+      </c>
+      <c r="Z65">
+        <v>177.29249999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y66" s="2">
+        <v>31778</v>
+      </c>
+      <c r="Z66">
+        <v>176.97</v>
+      </c>
+    </row>
+    <row r="67" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y67" s="2">
+        <v>32143</v>
+      </c>
+      <c r="Z67">
+        <v>176.56416669999999</v>
+      </c>
+    </row>
+    <row r="68" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y68" s="2">
+        <v>32509</v>
+      </c>
+      <c r="Z68">
+        <v>176.40083329999999</v>
+      </c>
+    </row>
+    <row r="69" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y69" s="2">
+        <v>32874</v>
+      </c>
+      <c r="Z69">
+        <v>176.35</v>
+      </c>
+    </row>
+    <row r="70" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y70" s="2">
+        <v>33239</v>
+      </c>
+      <c r="Z70">
+        <v>176.46916669999999</v>
+      </c>
+    </row>
+    <row r="71" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y71" s="2">
+        <v>33604</v>
+      </c>
+      <c r="Z71">
+        <v>176.47916670000001</v>
+      </c>
+    </row>
+    <row r="72" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y72" s="2">
+        <v>33970</v>
+      </c>
+      <c r="Z72">
+        <v>176.6958333</v>
+      </c>
+    </row>
+    <row r="73" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y73" s="2">
+        <v>34335</v>
+      </c>
+      <c r="Z73">
+        <v>176.67833329999999</v>
+      </c>
+    </row>
+    <row r="74" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y74" s="2">
+        <v>34700</v>
+      </c>
+      <c r="Z74">
+        <v>176.5275</v>
+      </c>
+    </row>
+    <row r="75" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y75" s="2">
+        <v>35065</v>
+      </c>
+      <c r="Z75">
+        <v>176.65416669999999</v>
+      </c>
+    </row>
+    <row r="76" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y76" s="2">
+        <v>35431</v>
+      </c>
+      <c r="Z76">
+        <v>176.9841667</v>
+      </c>
+    </row>
+    <row r="77" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y77" s="2">
+        <v>35796</v>
+      </c>
+      <c r="Z77">
+        <v>176.71666669999999</v>
+      </c>
+    </row>
+    <row r="78" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y78" s="2">
+        <v>36161</v>
+      </c>
+      <c r="Z78">
+        <v>176.2358333</v>
+      </c>
+    </row>
+    <row r="79" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y79" s="2">
+        <v>36526</v>
+      </c>
+      <c r="Z79">
+        <v>175.9783333</v>
+      </c>
+    </row>
+    <row r="80" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y80" s="2">
+        <v>36892</v>
+      </c>
+      <c r="Z80">
+        <v>175.9508333</v>
+      </c>
+    </row>
+    <row r="81" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y81" s="2">
+        <v>37257</v>
+      </c>
+      <c r="Z81">
+        <v>176.11833329999999</v>
+      </c>
+    </row>
+    <row r="82" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y82" s="2">
+        <v>37622</v>
+      </c>
+      <c r="Z82">
+        <v>175.8916667</v>
+      </c>
+    </row>
+    <row r="83" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y83" s="2">
+        <v>37987</v>
+      </c>
+      <c r="Z83">
+        <v>176.1108333</v>
+      </c>
+    </row>
+    <row r="84" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y84" s="2">
+        <v>38353</v>
+      </c>
+      <c r="Z84">
+        <v>176.09</v>
+      </c>
+    </row>
+    <row r="85" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y85" s="2">
+        <v>38718</v>
+      </c>
+      <c r="Z85">
+        <v>176.0158333</v>
+      </c>
+    </row>
+    <row r="86" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y86" s="2">
+        <v>39083</v>
+      </c>
+      <c r="Z86">
+        <v>175.94333330000001</v>
+      </c>
+    </row>
+    <row r="87" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y87" s="2">
+        <v>39448</v>
+      </c>
+      <c r="Z87">
+        <v>176.005</v>
+      </c>
+    </row>
+    <row r="88" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y88" s="2">
+        <v>39814</v>
+      </c>
+      <c r="Z88">
+        <v>176.2583333</v>
+      </c>
+    </row>
+    <row r="89" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y89" s="2">
+        <v>40179</v>
+      </c>
+      <c r="Z89">
+        <v>176.1108333</v>
+      </c>
+    </row>
+    <row r="90" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y90" s="2">
+        <v>40544</v>
+      </c>
+      <c r="Z90">
+        <v>176.03659999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y91" s="2">
+        <v>40909</v>
+      </c>
+      <c r="Z91">
+        <v>175.91579999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y92" s="2">
+        <v>41275</v>
+      </c>
+      <c r="Z92">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="93" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y93" s="2">
+        <v>41640</v>
+      </c>
+      <c r="Z93">
+        <v>176.3016667</v>
+      </c>
+    </row>
+    <row r="94" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y94" s="2">
+        <v>42005</v>
+      </c>
+      <c r="Z94">
+        <v>176.59</v>
+      </c>
+    </row>
+    <row r="95" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y95" s="2">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="96" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y96" s="2">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="97" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y97" s="2">
+        <v>43101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4171,8 +8334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:D45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
